--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Ncam1-Fgfr1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Ncam1-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.25743891219675</v>
+        <v>0.9404873333333333</v>
       </c>
       <c r="H2">
-        <v>1.25743891219675</v>
+        <v>2.821462</v>
       </c>
       <c r="I2">
-        <v>0.03228395023984512</v>
+        <v>0.02000383747045655</v>
       </c>
       <c r="J2">
-        <v>0.03228395023984512</v>
+        <v>0.02000383747045654</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.35314450536564</v>
+        <v>4.675378666666666</v>
       </c>
       <c r="N2">
-        <v>2.35314450536564</v>
+        <v>14.026136</v>
       </c>
       <c r="O2">
-        <v>0.02000293870671408</v>
+        <v>0.03681964474327726</v>
       </c>
       <c r="P2">
-        <v>0.02000293870671408</v>
+        <v>0.03681964474327726</v>
       </c>
       <c r="Q2">
-        <v>2.958935467068729</v>
+        <v>4.397134414536889</v>
       </c>
       <c r="R2">
-        <v>2.958935467068729</v>
+        <v>39.574209730832</v>
       </c>
       <c r="S2">
-        <v>0.0006457738778582295</v>
+        <v>0.0007365341891644681</v>
       </c>
       <c r="T2">
-        <v>0.0006457738778582295</v>
+        <v>0.000736534189164468</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.25743891219675</v>
+        <v>0.9404873333333333</v>
       </c>
       <c r="H3">
-        <v>1.25743891219675</v>
+        <v>2.821462</v>
       </c>
       <c r="I3">
-        <v>0.03228395023984512</v>
+        <v>0.02000383747045655</v>
       </c>
       <c r="J3">
-        <v>0.03228395023984512</v>
+        <v>0.02000383747045654</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.7364127242719</v>
+        <v>82.95722966666666</v>
       </c>
       <c r="N3">
-        <v>82.7364127242719</v>
+        <v>248.871689</v>
       </c>
       <c r="O3">
-        <v>0.7033020661346315</v>
+        <v>0.653306596744776</v>
       </c>
       <c r="P3">
-        <v>0.7033020661346315</v>
+        <v>0.653306596744776</v>
       </c>
       <c r="Q3">
-        <v>104.0359848150698</v>
+        <v>78.02022370992422</v>
       </c>
       <c r="R3">
-        <v>104.0359848150698</v>
+        <v>702.1820133893179</v>
       </c>
       <c r="S3">
-        <v>0.02270536890667071</v>
+        <v>0.01306863897965959</v>
       </c>
       <c r="T3">
-        <v>0.02270536890667071</v>
+        <v>0.01306863897965959</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.25743891219675</v>
+        <v>0.9404873333333333</v>
       </c>
       <c r="H4">
-        <v>1.25743891219675</v>
+        <v>2.821462</v>
       </c>
       <c r="I4">
-        <v>0.03228395023984512</v>
+        <v>0.02000383747045655</v>
       </c>
       <c r="J4">
-        <v>0.03228395023984512</v>
+        <v>0.02000383747045654</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.5503825745971</v>
+        <v>39.34793966666667</v>
       </c>
       <c r="N4">
-        <v>32.5503825745971</v>
+        <v>118.043819</v>
       </c>
       <c r="O4">
-        <v>0.2766949951586544</v>
+        <v>0.3098737585119468</v>
       </c>
       <c r="P4">
-        <v>0.2766949951586544</v>
+        <v>0.3098737585119468</v>
       </c>
       <c r="Q4">
-        <v>40.93011765618942</v>
+        <v>37.00623884926422</v>
       </c>
       <c r="R4">
-        <v>40.93011765618942</v>
+        <v>333.056149643378</v>
       </c>
       <c r="S4">
-        <v>0.008932807455316187</v>
+        <v>0.006198664301632484</v>
       </c>
       <c r="T4">
-        <v>0.008932807455316187</v>
+        <v>0.006198664301632482</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.6919121695308</v>
+        <v>1.392600333333333</v>
       </c>
       <c r="H5">
-        <v>37.6919121695308</v>
+        <v>4.177801000000001</v>
       </c>
       <c r="I5">
-        <v>0.9677160497601549</v>
+        <v>0.0296201232509638</v>
       </c>
       <c r="J5">
-        <v>0.9677160497601549</v>
+        <v>0.0296201232509638</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.35314450536564</v>
+        <v>4.675378666666666</v>
       </c>
       <c r="N5">
-        <v>2.35314450536564</v>
+        <v>14.026136</v>
       </c>
       <c r="O5">
-        <v>0.02000293870671408</v>
+        <v>0.03681964474327726</v>
       </c>
       <c r="P5">
-        <v>0.02000293870671408</v>
+        <v>0.03681964474327726</v>
       </c>
       <c r="Q5">
-        <v>88.6945160184557</v>
+        <v>6.510933889659555</v>
       </c>
       <c r="R5">
-        <v>88.6945160184557</v>
+        <v>58.59840500693601</v>
       </c>
       <c r="S5">
-        <v>0.01935716482885586</v>
+        <v>0.001090602415352574</v>
       </c>
       <c r="T5">
-        <v>0.01935716482885586</v>
+        <v>0.001090602415352574</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>37.6919121695308</v>
+        <v>1.392600333333333</v>
       </c>
       <c r="H6">
-        <v>37.6919121695308</v>
+        <v>4.177801000000001</v>
       </c>
       <c r="I6">
-        <v>0.9677160497601549</v>
+        <v>0.0296201232509638</v>
       </c>
       <c r="J6">
-        <v>0.9677160497601549</v>
+        <v>0.0296201232509638</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>82.7364127242719</v>
+        <v>82.95722966666666</v>
       </c>
       <c r="N6">
-        <v>82.7364127242719</v>
+        <v>248.871689</v>
       </c>
       <c r="O6">
-        <v>0.7033020661346315</v>
+        <v>0.653306596744776</v>
       </c>
       <c r="P6">
-        <v>0.7033020661346315</v>
+        <v>0.653306596744776</v>
       </c>
       <c r="Q6">
-        <v>3118.493601625307</v>
+        <v>115.5262656862099</v>
       </c>
       <c r="R6">
-        <v>3118.493601625307</v>
+        <v>1039.736391175889</v>
       </c>
       <c r="S6">
-        <v>0.6805966972279608</v>
+        <v>0.01935102191624797</v>
       </c>
       <c r="T6">
-        <v>0.6805966972279608</v>
+        <v>0.01935102191624797</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.392600333333333</v>
+      </c>
+      <c r="H7">
+        <v>4.177801000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.0296201232509638</v>
+      </c>
+      <c r="J7">
+        <v>0.0296201232509638</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>39.34793966666667</v>
+      </c>
+      <c r="N7">
+        <v>118.043819</v>
+      </c>
+      <c r="O7">
+        <v>0.3098737585119468</v>
+      </c>
+      <c r="P7">
+        <v>0.3098737585119468</v>
+      </c>
+      <c r="Q7">
+        <v>54.7959538957799</v>
+      </c>
+      <c r="R7">
+        <v>493.1635850620191</v>
+      </c>
+      <c r="S7">
+        <v>0.009178498919363259</v>
+      </c>
+      <c r="T7">
+        <v>0.009178498919363254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>44.682258</v>
+      </c>
+      <c r="H8">
+        <v>134.046774</v>
+      </c>
+      <c r="I8">
+        <v>0.9503760392785797</v>
+      </c>
+      <c r="J8">
+        <v>0.9503760392785796</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4.675378666666666</v>
+      </c>
+      <c r="N8">
+        <v>14.026136</v>
+      </c>
+      <c r="O8">
+        <v>0.03681964474327726</v>
+      </c>
+      <c r="P8">
+        <v>0.03681964474327726</v>
+      </c>
+      <c r="Q8">
+        <v>208.906475831696</v>
+      </c>
+      <c r="R8">
+        <v>1880.158282485264</v>
+      </c>
+      <c r="S8">
+        <v>0.03499250813876022</v>
+      </c>
+      <c r="T8">
+        <v>0.03499250813876022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>37.6919121695308</v>
-      </c>
-      <c r="H7">
-        <v>37.6919121695308</v>
-      </c>
-      <c r="I7">
-        <v>0.9677160497601549</v>
-      </c>
-      <c r="J7">
-        <v>0.9677160497601549</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>32.5503825745971</v>
-      </c>
-      <c r="N7">
-        <v>32.5503825745971</v>
-      </c>
-      <c r="O7">
-        <v>0.2766949951586544</v>
-      </c>
-      <c r="P7">
-        <v>0.2766949951586544</v>
-      </c>
-      <c r="Q7">
-        <v>1226.88616108634</v>
-      </c>
-      <c r="R7">
-        <v>1226.88616108634</v>
-      </c>
-      <c r="S7">
-        <v>0.2677621877033383</v>
-      </c>
-      <c r="T7">
-        <v>0.2677621877033383</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>44.682258</v>
+      </c>
+      <c r="H9">
+        <v>134.046774</v>
+      </c>
+      <c r="I9">
+        <v>0.9503760392785797</v>
+      </c>
+      <c r="J9">
+        <v>0.9503760392785796</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>82.95722966666666</v>
+      </c>
+      <c r="N9">
+        <v>248.871689</v>
+      </c>
+      <c r="O9">
+        <v>0.653306596744776</v>
+      </c>
+      <c r="P9">
+        <v>0.653306596744776</v>
+      </c>
+      <c r="Q9">
+        <v>3706.716338931254</v>
+      </c>
+      <c r="R9">
+        <v>33360.44705038128</v>
+      </c>
+      <c r="S9">
+        <v>0.6208869358488684</v>
+      </c>
+      <c r="T9">
+        <v>0.6208869358488683</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>44.682258</v>
+      </c>
+      <c r="H10">
+        <v>134.046774</v>
+      </c>
+      <c r="I10">
+        <v>0.9503760392785797</v>
+      </c>
+      <c r="J10">
+        <v>0.9503760392785796</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>39.34793966666667</v>
+      </c>
+      <c r="N10">
+        <v>118.043819</v>
+      </c>
+      <c r="O10">
+        <v>0.3098737585119468</v>
+      </c>
+      <c r="P10">
+        <v>0.3098737585119468</v>
+      </c>
+      <c r="Q10">
+        <v>1758.154791954434</v>
+      </c>
+      <c r="R10">
+        <v>15823.3931275899</v>
+      </c>
+      <c r="S10">
+        <v>0.2944965952909511</v>
+      </c>
+      <c r="T10">
+        <v>0.294496595290951</v>
       </c>
     </row>
   </sheetData>
